--- a/medicine/Psychotrope/Château_des_Laurets/Château_des_Laurets.xlsx
+++ b/medicine/Psychotrope/Château_des_Laurets/Château_des_Laurets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Laurets</t>
+          <t>Château_des_Laurets</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Château des Laurets est un vignoble bordelais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Laurets</t>
+          <t>Château_des_Laurets</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le domaine du château, alors propriété de Pierre Combret de la Nauze, aurait été l'un des principaux terrains de développement de la révolution agricole dans la région[1].
-Le château de style Napoléon III au milieu du domaine est érigé en 1860. Il est conçu par l'architecte Mialhe[1].
-Château des Laurets est acquis en 2003 par Benjamin et Ariane de Rothschild et associée à la marque Edmond de Rothschild Heritage[2]. L'année suivante, une cuvée élaborée uniquement avec les vieilles vignes du château (1946) est créée[1].
-En 2015, le design de la bouteille est revisité[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine du château, alors propriété de Pierre Combret de la Nauze, aurait été l'un des principaux terrains de développement de la révolution agricole dans la région.
+Le château de style Napoléon III au milieu du domaine est érigé en 1860. Il est conçu par l'architecte Mialhe.
+Château des Laurets est acquis en 2003 par Benjamin et Ariane de Rothschild et associée à la marque Edmond de Rothschild Heritage. L'année suivante, une cuvée élaborée uniquement avec les vieilles vignes du château (1946) est créée.
+En 2015, le design de la bouteille est revisité.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Laurets</t>
+          <t>Château_des_Laurets</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble des Laurets est installé sur des coteaux exposés plein Sud et laissant apparaître par endroits des affleurements de calcaire. La propriété compte 86 hectares sur deux appellations : Puisseguin-saint-émilion et Montagne-saint-émilion. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_des_Laurets</t>
+          <t>Château_des_Laurets</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cuvée issue de vieilles vignes composée presque exclusivement de merlot (et un peu de cabernet franc) est élevée en barriques neuves pendant 15 à 18 mois. Le vin est assez opulent, avec des tannins pas encore totalement fondus mais harmonieux. Un nez de fruits rouges (framboise notamment) et des notes toastées/grillées caractérisent ce vin de belle longueur en bouche[3]. 
-Le domaine produit entre 200 000 et 270 000 bouteilles de Château des Laurets, et entre 5 000 et 20 000 bouteilles de Château des Laurets Baron[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cuvée issue de vieilles vignes composée presque exclusivement de merlot (et un peu de cabernet franc) est élevée en barriques neuves pendant 15 à 18 mois. Le vin est assez opulent, avec des tannins pas encore totalement fondus mais harmonieux. Un nez de fruits rouges (framboise notamment) et des notes toastées/grillées caractérisent ce vin de belle longueur en bouche. 
+Le domaine produit entre 200 000 et 270 000 bouteilles de Château des Laurets, et entre 5 000 et 20 000 bouteilles de Château des Laurets Baron.
 Le design de l’étiquette a été imaginé par les équipes du Gitana Team.
 </t>
         </is>
